--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -1,49 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\SeleniumPython\BDDBehavePOM\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CBF83F-F238-40F3-BB10-DE7B65264A9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E2CBF83F-F238-40F3-BB10-DE7B65264A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A34685DE-162D-40F6-94E2-D392DD2EE626}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{B96574F7-F181-44F6-AD6B-6D42D9D56DEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>username</t>
+    <t>number</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>selenium.testmay2017</t>
-  </si>
-  <si>
-    <t>test@1234</t>
+    <t>Rudresh@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,15 +417,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -425,20 +434,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>6266739954</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>6266739954</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
